--- a/docs/PTA2_DDC_30/PTA2_DDC_30_12.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_30/PTA2_DDC_30_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,630 +505,745 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731434200.473115</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731434201.2169802</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434200.473115.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434201.2169802.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.34</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>136.73</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731434201.9278114</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731434202.450829</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434201.9278114.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434202.450829.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>136.83</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>136.58</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731434202.8364196</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731434204.3544128</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434202.8364196.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434204.3544128.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>136.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>136.52</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731434204.7520676</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731434205.005588</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434204.7520676.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434205.005588.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>136.55</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>136.42</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1300000000000239</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731434205.074054</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731434205.1996987</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434205.074054.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434205.1996987.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>136.55</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>136.41</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731434205.3586204</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731434208.2321768</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434205.3586204.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434208.2321768.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>136.3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>135.93</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3700000000000045</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731434208.5557961</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731434209.4963584</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434208.5557961.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434209.4963584.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>135.69</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>135.82</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731434209.926659</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731434209.9947362</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434209.926659.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434209.9947362.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>135.94</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>135.72</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731434210.9356241</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731434212.940604</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434210.9356241.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434212.940604.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>135.57</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>135.25</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.3199999999999932</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731434213.1085653</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731434213.9546602</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434213.1085653.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434213.9546602.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>135.45</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>135.28</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1699999999999875</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731434214.3566203</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731434215.1053946</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434214.3566203.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434215.1053946.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>135.07</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>135.18</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731434216.877596</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731434217.5245633</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434216.877596.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731434217.5245633.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>135.31</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>135.31</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1121,734 +1251,869 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731434218.1528676</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731434219.3956773</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434218.1528676.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434219.3956773.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>7020</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>7035</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731434220.6685371</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731434221.4216702</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434220.6685371.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434221.4216702.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>7031</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>7037</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731434222.8714256</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731434224.6490822</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434222.8714256.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434224.6490822.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>7020.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>7007</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-13.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731434224.715538</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731434224.7831254</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434224.715538.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434224.7831254.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>7012</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>7005</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731434225.3573837</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731434225.8280292</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434225.3573837.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434225.8280292.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>7000.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>7008.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>8</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731434225.975325</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731434226.1630504</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434225.975325.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434226.1630504.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6999</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>7010</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731434226.202943</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731434227.2214515</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434226.202943.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434227.2214515.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>7013.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>7005.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731434227.8395164</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731434229.8306284</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434227.8395164.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434229.8306284.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>7000.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6995.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731434229.9986875</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731434230.8747118</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434229.9986875.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434230.8747118.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>7000</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6994</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731434231.9653945</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731434232.6963356</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434231.9653945.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434232.6963356.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>7003</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>7002</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731434234.1506689</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731434234.3515265</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434234.1506689.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731434234.3515265.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>7009.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>7005</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731434235.2815156</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731434237.5314353</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434235.2815156.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434237.5314353.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>489.9</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>492.35</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-2.450000000000045</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731434237.6804314</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731434241.32059</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434237.6804314.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434241.32059.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>491.9</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>490.65</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731434241.5504875</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731434241.961607</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434241.5504875.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434241.961607.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>490.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>490.55</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731434242.333603</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731434242.5362108</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434242.333603.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434242.5362108.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>490.45</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>490.45</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1856,1469 +2121,1739 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731434243.1006675</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731434247.0168138</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434243.1006675.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434247.0168138.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>490</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>487.25</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-2.75</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731434247.083826</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731434247.346199</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434247.083826.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434247.346199.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>488.35</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>487.4</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.9500000000000455</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731434248.3883572</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731434249.3728285</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434248.3883572.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434249.3728285.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>486.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>486.55</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731434249.8079715</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731434251.4560356</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434249.8079715.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731434251.4560356.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>484.5</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>485.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731434252.0386739</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731434254.2786665</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434252.0386739.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434254.2786665.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>940.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>943.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-3.399999999999977</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731434255.7135885</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731434256.3705206</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434255.7135885.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434256.3705206.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>949.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>947.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731434256.6011584</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731434260.5441484</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434256.6011584.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434260.5441484.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>945</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>939.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-5.600000000000023</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731434261.9042478</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731434263.3432324</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434261.9042478.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434263.3432324.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>936</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>935.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.6000000000000227</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731434264.1415186</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731434265.0365603</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434264.1415186.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434265.0365603.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>935.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>935.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731434265.3116086</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731434266.2478673</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434265.3116086.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434266.2478673.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>934.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>935.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731434267.4965293</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731434268.2959824</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434267.4965293.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434268.2959824.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>935.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>935.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731434268.545727</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731434269.5574837</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434268.545727.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434269.5574837.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>37.915</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>38.015</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731434270.071536</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731434270.9380453</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434270.071536.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434270.9380453.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>38.06</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>38.025</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.03500000000000369</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731434271.4887102</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731434272.6299372</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434271.4887102.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434272.6299372.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>37.96</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>37.93</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731434274.1249757</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731434274.536287</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434274.1249757.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434274.536287.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>37.84</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>37.915</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731434274.9476466</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731434277.0130255</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434274.9476466.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434277.0130255.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>38.025</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>38.015</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731434277.395574</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731434278.9948566</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434277.395574.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434278.9948566.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>38.09</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>38.11</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731434279.1458158</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731434279.1867652</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434279.1458158.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434279.1867652.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>38.095</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>38.155</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731434279.8875537</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731434279.9288192</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434279.8875537.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434279.9288192.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>38.155</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>38.135</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731434280.2526839</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731434281.5265524</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434280.2526839.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434281.5265524.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>38.185</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>38.15</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.03500000000000369</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731434281.9109719</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731434283.2056308</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434281.9109719.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434283.2056308.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>38.135</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>38.14</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.005000000000002558</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731434283.6550403</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731434284.5230627</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434283.6550403.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434284.5230627.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>38.04</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>38.065</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731434285.30065</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731434285.5978608</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434285.30065.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434285.5978608.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>38.165</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>38.07</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.09499999999999886</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731434286.2911663</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731434287.838094</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434286.2911663.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434287.838094.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1244</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1247.8</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731434288.1302743</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731434289.469639</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434288.1302743.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434289.469639.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1244.2</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1246.2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731434289.9889534</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731434290.7185555</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434289.9889534.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434290.7185555.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1246.6</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1243.8</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731434290.9196203</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731434292.751028</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434290.9196203.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434292.751028.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1243.2</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1243.4</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731434293.4690146</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731434294.3247883</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434293.4690146.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434294.3247883.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1240.4</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1243.8</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>3.399999999999864</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731434294.5892358</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731434295.7505846</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434294.5892358.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434295.7505846.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1244.8</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1242</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731434296.7897801</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731434299.988065</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434296.7897801.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434299.988065.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1235</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1235</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3326,2621 +3861,3107 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731434300.1347015</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731434300.3827968</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434300.1347015.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434300.3827968.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1237.4</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1234.6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>2.800000000000182</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731434301.7515178</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731434301.7515178.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731434301.7515178.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1238</v>
       </c>
-      <c r="J61" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
+      <c r="L61" t="n">
+        <v>1240.2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-2.200000000000045</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731434302.4929895</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731434302.969033</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434302.4929895.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434302.969033.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>80.86</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>81.05</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731434303.8074088</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731434304.8906345</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434303.8074088.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434304.8906345.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>81.14</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>81.16</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731434305.6635165</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731434306.4430285</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434305.6635165.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434306.4430285.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>81.11</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>81.13</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731434307.689175</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731434309.5684524</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434307.689175.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434309.5684524.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>80.95</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>80.92</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731434309.871888</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731434310.0143616</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434309.871888.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434310.0143616.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>81</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731434310.7381718</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731434311.5765417</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434310.7381718.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434311.5765417.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>80.73999999999999</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>80.8</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731434312.793963</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731434313.2626567</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434312.793963.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434313.2626567.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>80.75</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>80.72</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731434313.7460475</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731434314.950468</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434313.7460475.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434314.950468.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>80.5</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731434315.3683531</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731434315.7036855</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434315.3683531.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434315.7036855.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>80.72</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>80.51000000000001</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.2099999999999937</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731434318.2497356</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731434318.2497356.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731434318.2497356.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>80.64</v>
       </c>
-      <c r="J71" t="n">
-        <v>80.64</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
+      <c r="L71" t="n">
+        <v>80.95999999999999</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731434319.2785761</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731434319.9006274</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434319.2785761.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434319.9006274.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>14.394</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>14.494</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.09999999999999964</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731434320.2292964</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731434320.47449</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434320.2292964.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434320.47449.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>14.49</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>14.424</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.06600000000000072</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731434321.014246</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731434321.377619</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434321.014246.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434321.377619.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>14.519</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>14.451</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.06799999999999962</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731434323.084015</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731434323.6422002</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434323.084015.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434323.6422002.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>14.515</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>14.511</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.004000000000001336</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731434324.7245994</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731434326.340117</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434324.7245994.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434326.340117.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>14.47</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>14.455</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731434326.7895384</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731434327.3814862</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434326.7895384.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434327.3814862.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>14.5</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>14.463</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.03700000000000081</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731434327.6333034</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731434328.2411416</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434327.6333034.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434328.2411416.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>14.422</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>14.474</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0519999999999996</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731434330.2450902</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731434331.9067767</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434330.2450902.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434331.9067767.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>14.405</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>14.381</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.02399999999999913</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731434333.6783216</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731434333.9875612</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434333.6783216.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434333.9875612.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>14.324</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>14.366</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.04199999999999982</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731434334.3574646</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731434335.240983</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434334.3574646.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434335.240983.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>14.394</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>14.345</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.04899999999999949</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731434335.803574</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731434335.989783</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434335.803574.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434335.989783.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>14.4</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>14.383</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.01700000000000124</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731434336.1907513</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731434336.3429675</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434336.1907513.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731434336.3429675.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>14.418</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>14.383</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.03500000000000014</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731434336.7013679</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731434337.2388105</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434336.7013679.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434337.2388105.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>106.5</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>106.8</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731434337.393415</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731434339.0578995</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434337.393415.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434339.0578995.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>106.89</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>107.02</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731434339.3714013</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731434340.7170413</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434339.3714013.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434340.7170413.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>106.86</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>106.89</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731434340.977908</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731434341.7993183</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434340.977908.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434341.7993183.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>107.09</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>106.78</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731434343.4273252</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731434343.6074255</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434343.4273252.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434343.6074255.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>106.68</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>106.95</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.269999999999996</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731434344.8472795</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731434345.9556031</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434344.8472795.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434345.9556031.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>106.66</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>106.4</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731434347.249977</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731434348.3826988</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434347.249977.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434348.3826988.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>105.91</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>105.93</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731434349.3214893</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731434350.352315</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434349.3214893.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434350.352315.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>106</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>105.99</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731434350.9364731</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731434351.626543</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434350.9364731.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434351.626543.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>105.89</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>106.12</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.230000000000004</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731434351.797619</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731434352.0624123</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434351.797619.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434352.0624123.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>106.25</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>105.98</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.269999999999996</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731434354.5487118</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731434356.9950402</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731434354.5487118.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731434356.9950402.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>349.22</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>349.5</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.2799999999999727</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731434358.9793832</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731434360.0616612</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731434358.9793832.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731434360.0616612.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>350.35</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>350.1</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731434360.329366</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731434367.942436</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731434360.329366.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731434367.942436.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>349.52</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>346.66</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-2.859999999999957</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731434369.0143895</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731434369.0143895.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731434369.0143895.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>347.05</v>
       </c>
-      <c r="J97" t="n">
-        <v>347.05</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
+      <c r="L97" t="n">
+        <v>347.25</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731434370.4942858</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731434371.8832</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434370.4942858.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434371.8832.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2793.4</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2793.9</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731434372.2674856</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731434373.8207262</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434372.2674856.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434373.8207262.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>2791.45</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>2792.4</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.9500000000002728</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731434374.1435428</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731434374.519725</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434374.1435428.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434374.519725.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>2794.5</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>2790.45</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>4.050000000000182</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731434374.9754362</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731434376.5638783</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434374.9754362.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434376.5638783.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>2786.45</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>2784.7</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-1.75</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731434377.1347694</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731434377.9525263</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434377.1347694.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434377.9525263.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>2786.9</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>2785</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>1.900000000000091</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731434378.2993124</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731434378.8257616</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434378.2993124.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434378.8257616.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>2782.3</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>2786.2</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>3.899999999999636</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731434379.2758217</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731434379.3166845</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434379.2758217.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434379.3166845.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>2783.45</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>2784.85</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731434380.7577765</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731434382.3379169</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434380.7577765.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434382.3379169.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>2776.05</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>2776.5</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.4499999999998181</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731434382.3529046</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731434382.4280925</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434382.3529046.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434382.4280925.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>2776.5</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>2776.25</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731434384.0751164</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731434384.5979931</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434384.0751164.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434384.5979931.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>2775.1</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>2779.85</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>4.75</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731434384.7984788</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731434385.0208454</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434384.7984788.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434385.0208454.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>2782.3</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>2777.2</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>5.100000000000364</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731434386.6018596</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731434386.803899</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434386.6018596.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434386.803899.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>2783</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>2779.3</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>3.699999999999818</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731434387.3573143</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731434387.5262127</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434387.3573143.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434387.5262127.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>596.5</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>597.6</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731434387.7463605</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731434387.9795713</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434387.7463605.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434387.9795713.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>599.1</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>597.7</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731434389.1736</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731434390.8294477</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434389.1736.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434390.8294477.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>596.8</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>594.9</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-1.899999999999977</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731434391.0074036</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731434392.455234</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434391.0074036.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434392.455234.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>592.4</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>592.4</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5948,97 +6969,115 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731434393.3370225</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731434394.5598915</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434393.3370225.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434394.5598915.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>592.7</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>593.4</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>-0.6999999999999318</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731434395.5284953</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731434397.1143663</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434395.5284953.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434397.1143663.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>594.7</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>594.7</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6046,188 +7085,224 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731434397.1923652</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731434398.9239867</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434397.1923652.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434398.9239867.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>593.9</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>593.6</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>-0.2999999999999545</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731434399.4693995</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731434399.7803705</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434399.4693995.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434399.7803705.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>594.8</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>593.6</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731434400.2484534</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731434401.513922</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434400.2484534.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434401.513922.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>592.8</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>592.1</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-0.6999999999999318</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731434402.5494277</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731434402.5494277.png</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731434402.5494277.png</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>589.9</v>
       </c>
-      <c r="J119" t="n">
-        <v>589.9</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
+      <c r="L119" t="n">
+        <v>588.8</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -6241,7 +7316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6270,6 +7345,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6286,6 +7371,12 @@
       <c r="D2" t="n">
         <v>0.0359166666666669</v>
       </c>
+      <c r="E2" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6302,6 +7393,12 @@
       <c r="D3" t="n">
         <v>0.07250000000000274</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6318,6 +7415,12 @@
       <c r="D4" t="n">
         <v>0.03083333333333371</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6334,6 +7437,12 @@
       <c r="D5" t="n">
         <v>2.016666666666689</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6350,6 +7459,12 @@
       <c r="D6" t="n">
         <v>1.636363636363636</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6366,6 +7481,12 @@
       <c r="D7" t="n">
         <v>0.1050000000000026</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6374,13 +7495,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1000000000001364</v>
+        <v>-0.9999999999998863</v>
       </c>
       <c r="C8" t="n">
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01000000000001364</v>
+        <v>-0.09999999999998863</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9">
@@ -6390,13 +7517,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3999999999999915</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03999999999999915</v>
+        <v>0.00799999999999983</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
@@ -6406,13 +7539,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.20000000000005</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.133333333333338</v>
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6430,6 +7569,12 @@
       <c r="D11" t="n">
         <v>-0.5124999999999957</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.8300000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6446,6 +7591,12 @@
       <c r="D12" t="n">
         <v>-0.9428571428571298</v>
       </c>
+      <c r="E12" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6454,13 +7605,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.88999999999993</v>
+        <v>-3.089999999999918</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7224999999999824</v>
+        <v>-0.7724999999999795</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.8900000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="14">
@@ -6476,6 +7633,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
